--- a/app/scripts/lectures/main.xlsx
+++ b/app/scripts/lectures/main.xlsx
@@ -55,12 +55,12 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>CD222-Dr. Wendy Stokes-Hall 1
+    <t>CD222-sec-Hall 1
 CD222-lab-Hall 2
-CD222-Carlos Langworth-Hall 5</t>
-  </si>
-  <si>
-    <t>CD222-sec-Hall 1</t>
+CD222-Dr. Wendy Stokes-Hall 5</t>
+  </si>
+  <si>
+    <t>CD222-Carlos Langworth-Hall 1</t>
   </si>
 </sst>
 </file>

--- a/app/scripts/lectures/main.xlsx
+++ b/app/scripts/lectures/main.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Period/Day</t>
   </si>
@@ -49,18 +49,71 @@
     <t>Thursday</t>
   </si>
   <si>
-    <t>Friday</t>
-  </si>
-  <si>
     <t>Saturday</t>
   </si>
   <si>
-    <t>CD222-sec-Hall 1
-CD222-lab-Hall 2
-CD222-Dr. Wendy Stokes-Hall 5</t>
-  </si>
-  <si>
-    <t>CD222-Carlos Langworth-Hall 1</t>
+    <t>GEN0801-Percival Greenholt-Hall 1
+GEN0809-Marcus Hegmann-Hall 2
+GEN0802-Jayde Predovic I-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0807-sec-Hall 1
+GEN1801-Miss Myriam Huel-Hall 2
+POW1804-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>POW1804-Danny Prohaska-Hall 1
+CIE3801-Araceli Hand-Hall 2
+GEN1805-Prof. Virgie Braun II-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE1808-Amy Cole-Hall 1
+GEN0801-Marcus Hegmann-Hall 2
+GEN2810-Miss Edna Schuppe-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE3804-lab-Hall 1
+CIE1803-lab-Hall 2
+GEN1801-Adah Hyatt-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE4818-Percival Greenholt-Hall 1
+CIE3801-sec-Hall 2
+GEN1809-Ofelia O'Conner Jr.-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE1808-sec-Hall 1
+GEN0802-lab-Hall 2
+GEN0806-Cortney Heller-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0810-Carroll Hirthe DVM-Hall 1
+GEN0801-sec-Hall 2
+CIE2802-Lincoln Predovic-Hall 5</t>
+  </si>
+  <si>
+    <t>MEC0811-sec-Hall 1
+MEC0811-Carroll Hirthe DVM-Hall 2
+POW1804-Carroll Hirthe DVM-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE2802-sec-Hall 1
+CIE3801-Lexi Cassin-Hall 2
+GEN1809-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE1803-Araceli Hand-Hall 1
+GEN1801-sec-Hall 2
+GEN0807-Jayde Predovic I-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0810-Danny Prohaska-Hall 1
+CIE1808-Lincoln Predovic-Hall 2
+CIE4818-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE3804-Lexi Cassin-Hall 1
+GEN0806-sec-Hall 2</t>
   </si>
 </sst>
 </file>
@@ -392,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,21 +476,54 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
@@ -452,11 +538,6 @@
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/app/scripts/lectures/main.xlsx
+++ b/app/scripts/lectures/main.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Period/Day</t>
   </si>
@@ -52,68 +52,63 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>GEN0801-Percival Greenholt-Hall 1
-GEN0809-Marcus Hegmann-Hall 2
-GEN0802-Jayde Predovic I-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0807-sec-Hall 1
-GEN1801-Miss Myriam Huel-Hall 2
-POW1804-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>POW1804-Danny Prohaska-Hall 1
-CIE3801-Araceli Hand-Hall 2
-GEN1805-Prof. Virgie Braun II-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE1808-Amy Cole-Hall 1
-GEN0801-Marcus Hegmann-Hall 2
-GEN2810-Miss Edna Schuppe-Hall 5</t>
+    <t>GEN0810-Dr. Yvonne Treutel PhD-Hall 1
+GEN1809-sec-Hall 2
+CIE4818-Darwin Nicolas-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN2810-Mr. Howard Willms II-Hall 1
+GEN0810-Dr. Yvonne Treutel PhD-Hall 2
+GEN0809-Darwin Nicolas-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE1803-lab-Hall 1
+GEN1801-Prof. Eladio Franecki-Hall 2
+CIE1803-Vernie Sporer-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE1808-Destinee Feest-Hall 1
+CIE1808-Destinee Feest-Hall 2
+GEN0801-Darwin Nicolas-Hall 5</t>
+  </si>
+  <si>
+    <t>POW1804-sec-Hall 1
+MEC0811-sec-Hall 2
+CIE2802-Destinee Feest-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0806-sec-Hall 1
+GEN0807-sec-Hall 2
+GEN0806-Osvaldo Boyle PhD-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN1801-sec-Hall 1
+GEN1809-Laisha Schultz-Hall 2
+GEN0807-Osvaldo Boyle PhD-Hall 5</t>
   </si>
   <si>
     <t>CIE3804-lab-Hall 1
-CIE1803-lab-Hall 2
-GEN1801-Adah Hyatt-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE4818-Percival Greenholt-Hall 1
-CIE3801-sec-Hall 2
-GEN1809-Ofelia O'Conner Jr.-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE1808-sec-Hall 1
+GEN0802-Osvaldo Boyle PhD-Hall 2
+CIE2802-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN1805-Mr. Howard Willms II-Hall 1
+CIE4818-sec-Hall 2
+GEN0801-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE3804-Vernie Sporer-Hall 1
+GEN1801-Prof. Eladio Franecki-Hall 2
+GEN0801-Mr. Howard Willms II-Hall 5</t>
+  </si>
+  <si>
+    <t>MEC0811-Dr. Yvonne Treutel PhD-Hall 1
 GEN0802-lab-Hall 2
-GEN0806-Cortney Heller-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0810-Carroll Hirthe DVM-Hall 1
-GEN0801-sec-Hall 2
-CIE2802-Lincoln Predovic-Hall 5</t>
-  </si>
-  <si>
-    <t>MEC0811-sec-Hall 1
-MEC0811-Carroll Hirthe DVM-Hall 2
-POW1804-Carroll Hirthe DVM-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE2802-sec-Hall 1
-CIE3801-Lexi Cassin-Hall 2
-GEN1809-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE1803-Araceli Hand-Hall 1
-GEN1801-sec-Hall 2
-GEN0807-Jayde Predovic I-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0810-Danny Prohaska-Hall 1
-CIE1808-Lincoln Predovic-Hall 2
-CIE4818-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE3804-Lexi Cassin-Hall 1
-GEN0806-sec-Hall 2</t>
+CIE1808-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>POW1804-Dr. Yvonne Treutel PhD-Hall 1
+POW1804-Dr. Yvonne Treutel PhD-Hall 2</t>
   </si>
 </sst>
 </file>
@@ -521,9 +516,6 @@
       <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">

--- a/app/scripts/lectures/main.xlsx
+++ b/app/scripts/lectures/main.xlsx
@@ -52,62 +52,62 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>GEN0810-Dr. Yvonne Treutel PhD-Hall 1
-GEN1809-sec-Hall 2
-CIE4818-Darwin Nicolas-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN2810-Mr. Howard Willms II-Hall 1
+    <t>CIE1808-sec-Hall 1
+GEN0806-sec-Hall 2
+MEC0811-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE1808-Destinee Feest-Hall 1
+POW1804-sec-Hall 2
+GEN0802-lab-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0809-Darwin Nicolas-Hall 1
+MEC0811-Dr. Yvonne Treutel PhD-Hall 2
+GEN1809-Laisha Schultz-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN1809-sec-Hall 1
+CIE2802-Destinee Feest-Hall 2
+GEN1801-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0807-sec-Hall 1
+GEN0807-Osvaldo Boyle PhD-Hall 2
+GEN2810-Mr. Howard Willms II-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0802-Osvaldo Boyle PhD-Hall 1
+CIE4818-Darwin Nicolas-Hall 2
+CIE2802-sec-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0801-sec-Hall 1
 GEN0810-Dr. Yvonne Treutel PhD-Hall 2
-GEN0809-Darwin Nicolas-Hall 5</t>
+GEN0801-Darwin Nicolas-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN1801-Prof. Eladio Franecki-Hall 1
+CIE1803-Vernie Sporer-Hall 2
+GEN0810-Dr. Yvonne Treutel PhD-Hall 5</t>
+  </si>
+  <si>
+    <t>GEN0806-Osvaldo Boyle PhD-Hall 1
+GEN0801-Mr. Howard Willms II-Hall 2
+GEN1801-Prof. Eladio Franecki-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE3804-lab-Hall 1
+CIE4818-sec-Hall 2
+POW1804-Dr. Yvonne Treutel PhD-Hall 5</t>
+  </si>
+  <si>
+    <t>CIE3804-Vernie Sporer-Hall 1
+CIE1808-Destinee Feest-Hall 2
+GEN1805-Mr. Howard Willms II-Hall 5</t>
   </si>
   <si>
     <t>CIE1803-lab-Hall 1
-GEN1801-Prof. Eladio Franecki-Hall 2
-CIE1803-Vernie Sporer-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE1808-Destinee Feest-Hall 1
-CIE1808-Destinee Feest-Hall 2
-GEN0801-Darwin Nicolas-Hall 5</t>
-  </si>
-  <si>
-    <t>POW1804-sec-Hall 1
-MEC0811-sec-Hall 2
-CIE2802-Destinee Feest-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN0806-sec-Hall 1
-GEN0807-sec-Hall 2
-GEN0806-Osvaldo Boyle PhD-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN1801-sec-Hall 1
-GEN1809-Laisha Schultz-Hall 2
-GEN0807-Osvaldo Boyle PhD-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE3804-lab-Hall 1
-GEN0802-Osvaldo Boyle PhD-Hall 2
-CIE2802-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>GEN1805-Mr. Howard Willms II-Hall 1
-CIE4818-sec-Hall 2
-GEN0801-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>CIE3804-Vernie Sporer-Hall 1
-GEN1801-Prof. Eladio Franecki-Hall 2
-GEN0801-Mr. Howard Willms II-Hall 5</t>
-  </si>
-  <si>
-    <t>MEC0811-Dr. Yvonne Treutel PhD-Hall 1
-GEN0802-lab-Hall 2
-CIE1808-sec-Hall 5</t>
-  </si>
-  <si>
-    <t>POW1804-Dr. Yvonne Treutel PhD-Hall 1
 POW1804-Dr. Yvonne Treutel PhD-Hall 2</t>
   </si>
 </sst>
